--- a/files/Journal.xlsx
+++ b/files/Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\GitHub\Accounting\Accounting-Python\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECFA09-60F9-4DF4-82FD-568C37D5987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF917C9-E1C4-41D1-9E4B-3658F23EB966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
